--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -73437,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1303"/>
+  <dimension ref="A1:R1304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73441,6 +73441,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>151.5399932861328</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>151.5399932861328</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>148.3200073242188</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>148.3200073242188</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>2011548</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1304"/>
+  <dimension ref="A1:R1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73493,7 +73493,63 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>144</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>155.7299957275391</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>144</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>155.7299957275391</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>155.7299957275391</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>534359</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1305"/>
+  <dimension ref="A1:R1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73549,7 +73549,63 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>211.3000030517578</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>211.3000030517578</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>127885</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -73605,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1306"/>
+  <dimension ref="A1:R1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73609,6 +73609,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>217.1000061035156</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>224.5500030517578</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>224.5500030517578</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>216610</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1307"/>
+  <dimension ref="A1:R1308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73661,7 +73661,63 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>227.8000030517578</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>227.8000030517578</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>214.0500030517578</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>214.5500030517578</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>214.5500030517578</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>67422</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1308"/>
+  <dimension ref="A1:R1309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73717,7 +73717,63 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>225.8999938964844</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>222</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>229.8999938964844</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>229.8999938964844</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>61358</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1309"/>
+  <dimension ref="A1:R1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73773,7 +73773,63 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>245.6999969482422</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>251.3000030517578</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>251.3000030517578</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>132239</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1310"/>
+  <dimension ref="A1:R1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73317,7 +73317,7 @@
         <v>19</v>
       </c>
       <c r="O1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1301" t="n">
         <v>0</v>
@@ -73829,7 +73829,63 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>221.1000061035156</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>226.75</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>226.75</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>17471</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1311"/>
+  <dimension ref="A1:R1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73885,7 +73885,63 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>210</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>118583</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1312"/>
+  <dimension ref="A1:R1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="R293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -18166,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="R316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -18222,7 +18222,7 @@
         <v>2</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -20182,7 +20182,7 @@
         <v>2</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -35638,7 +35638,7 @@
         <v>2</v>
       </c>
       <c r="R628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -36030,7 +36030,7 @@
         <v>1</v>
       </c>
       <c r="R635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -36086,7 +36086,7 @@
         <v>1</v>
       </c>
       <c r="R636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -45158,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="R798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -68454,7 +68454,7 @@
         <v>2</v>
       </c>
       <c r="R1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215">
@@ -68510,7 +68510,7 @@
         <v>2</v>
       </c>
       <c r="R1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216">
@@ -68566,7 +68566,7 @@
         <v>2</v>
       </c>
       <c r="R1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -70078,7 +70078,7 @@
         <v>1</v>
       </c>
       <c r="R1243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -72990,7 +72990,7 @@
         <v>2</v>
       </c>
       <c r="R1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -73941,7 +73941,63 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>220</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>207</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>212.6499938964844</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>212.6499938964844</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>23107</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1313"/>
+  <dimension ref="A1:R1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="R293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -18166,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="R316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -18222,7 +18222,7 @@
         <v>2</v>
       </c>
       <c r="R317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -20182,7 +20182,7 @@
         <v>2</v>
       </c>
       <c r="R352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -35638,7 +35638,7 @@
         <v>2</v>
       </c>
       <c r="R628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -36030,7 +36030,7 @@
         <v>1</v>
       </c>
       <c r="R635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -36086,7 +36086,7 @@
         <v>1</v>
       </c>
       <c r="R636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="R786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -45158,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="R798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -68454,7 +68454,7 @@
         <v>2</v>
       </c>
       <c r="R1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -68510,7 +68510,7 @@
         <v>2</v>
       </c>
       <c r="R1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -68566,7 +68566,7 @@
         <v>2</v>
       </c>
       <c r="R1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -70078,7 +70078,7 @@
         <v>1</v>
       </c>
       <c r="R1243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -72990,7 +72990,7 @@
         <v>2</v>
       </c>
       <c r="R1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -73997,7 +73997,63 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>192</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>189.8500061035156</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>189.8500061035156</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>48593</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1314"/>
+  <dimension ref="A1:R1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74053,7 +74053,63 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>196.9499969482422</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>196.9499969482422</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>187.6999969482422</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>187.6999969482422</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>187.6999969482422</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>81323</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1315"/>
+  <dimension ref="A1:R1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74109,7 +74109,63 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>145.3500061035156</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>145.3500061035156</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>145.3500061035156</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>145.3500061035156</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>145.3500061035156</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>25252</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1316"/>
+  <dimension ref="A1:R1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74165,7 +74165,63 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>178.9499969482422</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>163.1000061035156</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>170.3999938964844</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>170.3999938964844</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>181729</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1317"/>
+  <dimension ref="A1:R1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74221,7 +74221,63 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>173.3999938964844</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>176</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>162.6499938964844</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>286290</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1318"/>
+  <dimension ref="A1:R1319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="R293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -18166,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="R316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -18222,7 +18222,7 @@
         <v>2</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -20182,7 +20182,7 @@
         <v>2</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -35638,7 +35638,7 @@
         <v>2</v>
       </c>
       <c r="R628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -36030,7 +36030,7 @@
         <v>1</v>
       </c>
       <c r="R635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -36086,7 +36086,7 @@
         <v>1</v>
       </c>
       <c r="R636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -45158,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="R798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -68454,7 +68454,7 @@
         <v>2</v>
       </c>
       <c r="R1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215">
@@ -68510,7 +68510,7 @@
         <v>2</v>
       </c>
       <c r="R1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216">
@@ -68566,7 +68566,7 @@
         <v>2</v>
       </c>
       <c r="R1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -70078,7 +70078,7 @@
         <v>1</v>
       </c>
       <c r="R1243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -72990,7 +72990,7 @@
         <v>2</v>
       </c>
       <c r="R1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -74277,7 +74277,63 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>163.8500061035156</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>160</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>81748</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1319"/>
+  <dimension ref="A1:R1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="R293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -18166,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="R316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -18222,7 +18222,7 @@
         <v>2</v>
       </c>
       <c r="R317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -20182,7 +20182,7 @@
         <v>2</v>
       </c>
       <c r="R352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -35638,7 +35638,7 @@
         <v>2</v>
       </c>
       <c r="R628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -36030,7 +36030,7 @@
         <v>1</v>
       </c>
       <c r="R635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -36086,7 +36086,7 @@
         <v>1</v>
       </c>
       <c r="R636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="R786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -45158,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="R798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -68454,7 +68454,7 @@
         <v>2</v>
       </c>
       <c r="R1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -68510,7 +68510,7 @@
         <v>2</v>
       </c>
       <c r="R1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -68566,7 +68566,7 @@
         <v>2</v>
       </c>
       <c r="R1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -70078,7 +70078,7 @@
         <v>1</v>
       </c>
       <c r="R1243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -72990,7 +72990,7 @@
         <v>2</v>
       </c>
       <c r="R1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -73821,7 +73821,7 @@
         <v>32</v>
       </c>
       <c r="O1310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1310" t="n">
         <v>0</v>
@@ -74333,7 +74333,63 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>163</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>155.8999938964844</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>161.6499938964844</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>161.6499938964844</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>354248</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1320"/>
+  <dimension ref="A1:R1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74389,7 +74389,63 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>131.1999969482422</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>132.8000030517578</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>129.4499969482422</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>129.4499969482422</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>54307</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1321"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74445,7 +74445,63 @@
       <c r="Q1321" t="n">
         <v>2</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>152.6000061035156</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>151</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>151</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>173777</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1322"/>
+  <dimension ref="A1:R1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74501,7 +74501,63 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>157.8500061035156</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>133654</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1323"/>
+  <dimension ref="A1:R1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74557,7 +74557,63 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>138.6499938964844</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>142.3999938964844</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>133.0500030517578</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>137.3500061035156</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>137.3500061035156</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>78537</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1324"/>
+  <dimension ref="A1:R1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74613,7 +74613,63 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>144.0500030517578</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>148.5500030517578</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>141</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>142.1499938964844</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>142.1499938964844</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>38563</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1325"/>
+  <dimension ref="A1:R1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74669,7 +74669,63 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>137.1499938964844</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>49065</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1326"/>
+  <dimension ref="A1:R1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74725,7 +74725,63 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>134.8999938964844</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>137.3000030517578</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>131.8999938964844</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>131432</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1327"/>
+  <dimension ref="A1:R1328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74781,7 +74781,61 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>88.65000152587891</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>88.65000152587891</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>89.05000305175781</v>
+      </c>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="n">
+        <v>1123837</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1328"/>
+  <dimension ref="A1:R1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74835,7 +74835,61 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>94.80000305175781</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>96.80000305175781</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>90.09999847412109</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>90.40000152587891</v>
+      </c>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="n">
+        <v>178427</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74889,7 +74889,61 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>97.98999786376953</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>97.98999786376953</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>95.34999847412109</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>96.08000183105469</v>
+      </c>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="n">
+        <v>88523</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1330"/>
+  <dimension ref="A1:R1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74895,32 +74895,32 @@
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
-        <v>45660</v>
+        <v>45656</v>
       </c>
       <c r="B1330" t="n">
-        <v>97.98999786376953</v>
+        <v>88.94999694824219</v>
       </c>
       <c r="C1330" t="n">
-        <v>97.98999786376953</v>
+        <v>94.5</v>
       </c>
       <c r="D1330" t="n">
-        <v>95.34999847412109</v>
+        <v>86.5</v>
       </c>
       <c r="E1330" t="n">
-        <v>96.08000183105469</v>
+        <v>93.65000152587891</v>
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="n">
-        <v>88523</v>
+        <v>151920</v>
       </c>
       <c r="H1330" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1330" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J1330" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K1330" t="n">
         <v>0</v>
@@ -74944,6 +74944,476 @@
         <v>0</v>
       </c>
       <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>91.55000305175781</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="n">
+        <v>1144241</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>99.40000152587891</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>99.40000152587891</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>98.05999755859375</v>
+      </c>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="n">
+        <v>110468</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>99.88999938964844</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>99.88999938964844</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>96.13999938964844</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>97.01999664306641</v>
+      </c>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="n">
+        <v>82259</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>97.98999786376953</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>97.98999786376953</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>95.34999847412109</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>96.08000183105469</v>
+      </c>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="n">
+        <v>88523</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>98.98000335693359</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>97.37999725341797</v>
+      </c>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="n">
+        <v>193879</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>102.2399978637695</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>98.69000244140625</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>100.2699966430664</v>
+      </c>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="n">
+        <v>260616</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>101.8000030517578</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>105.2799987792969</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>102.5999984741211</v>
+      </c>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="n">
+        <v>437931</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>102.6600036621094</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>97.47000122070312</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>97.47000122070312</v>
+      </c>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="n">
+        <v>130373</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>93.52999877929688</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>95.40000152587891</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>92.59999847412109</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>92.59999847412109</v>
+      </c>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="n">
+        <v>98783</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1d/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1339"/>
+  <dimension ref="A1:R1344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74935,7 +74935,7 @@
         <v>1</v>
       </c>
       <c r="O1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1330" t="n">
         <v>0</v>
@@ -74943,7 +74943,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74995,7 +74997,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75047,7 +75051,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75099,7 +75105,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75205,7 +75213,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75257,7 +75267,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75309,7 +75321,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75361,7 +75375,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75413,7 +75429,269 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>90.05000305175781</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>87.97000122070312</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>88.01000213623047</v>
+      </c>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="n">
+        <v>104254</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>84.55000305175781</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>92.41000366210938</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>83.61000061035156</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>86.91000366210938</v>
+      </c>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="n">
+        <v>197839</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>88.97000122070312</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>89.90000152587891</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>86.98999786376953</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>87.62999725341797</v>
+      </c>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="n">
+        <v>82946</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>90.80000305175781</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>90.80000305175781</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>86.09999847412109</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>86.91999816894531</v>
+      </c>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="n">
+        <v>88359</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>88.66000366210938</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>91.19999694824219</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>86.59999847412109</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>89.02999877929688</v>
+      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="n">
+        <v>139261</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
